--- a/SAM ULTIMATE/arquivo_cliente/arquivo_consolidado_todos.xlsx
+++ b/SAM ULTIMATE/arquivo_cliente/arquivo_consolidado_todos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="riachuelo" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="94">
   <si>
     <t>Nº da Conta</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>Dc_razao_social_cliente</t>
-  </si>
-  <si>
-    <t>Valores_faturados Valor</t>
   </si>
   <si>
     <t>Nome_fornecedor</t>
@@ -787,7 +784,7 @@
   <dimension ref="A1:AZ1"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,7 +986,7 @@
         <v>52</v>
       </c>
       <c r="AV1" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW1" s="16" t="s">
         <v>39</v>
@@ -1197,16 +1194,16 @@
         <v>37</v>
       </c>
       <c r="AS1" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT1" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AU1" s="23" t="s">
         <v>40</v>
       </c>
       <c r="AV1" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1224,9 +1221,9 @@
   </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1261,7 +1258,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
@@ -1276,7 +1273,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>81</v>
@@ -1575,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
     </sheetView>
@@ -1659,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>6</v>
@@ -1776,25 +1773,25 @@
         <v>37</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AU1" s="10" t="s">
         <v>66</v>
       </c>
       <c r="AV1" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AW1" s="10" t="s">
         <v>38</v>
       </c>
       <c r="AX1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="BA1" s="10" t="s">
         <v>37</v>
@@ -1817,9 +1814,9 @@
   </sheetPr>
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM1" sqref="AM1"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2044,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2217,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU1"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2406,7 +2403,7 @@
         <v>37</v>
       </c>
       <c r="AS1" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AT1" s="32" t="s">
         <v>40</v>

--- a/SAM ULTIMATE/arquivo_cliente/arquivo_consolidado_todos.xlsx
+++ b/SAM ULTIMATE/arquivo_cliente/arquivo_consolidado_todos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PauloPimenta\Desktop\SAM ULTIMATE\arquivo_cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinícius Pimenta\Desktop\SAM ULTIMATE\arquivo_cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86072537-C5A4-47AB-A141-1164CC573380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="riachuelo" sheetId="8" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="93">
   <si>
     <t>Nº da Conta</t>
   </si>
@@ -57,9 +58,6 @@
     <t>Razão social Cliente</t>
   </si>
   <si>
-    <t>CNPJ cliente</t>
-  </si>
-  <si>
     <t>Endereço cliente</t>
   </si>
   <si>
@@ -279,9 +277,6 @@
     <t>Unidade_medida</t>
   </si>
   <si>
-    <t>Dc_identificador_pessoa_juridica_cliente</t>
-  </si>
-  <si>
     <t>Dc_razao_social_cliente</t>
   </si>
   <si>
@@ -319,13 +314,16 @@
   </si>
   <si>
     <t>Código da Empresa</t>
+  </si>
+  <si>
+    <t>CNPJ Cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -566,9 +564,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -780,14 +778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -843,7 +841,7 @@
     <col min="53" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="15" customFormat="1">
+    <row r="1" spans="1:52" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -863,136 +861,136 @@
         <v>5</v>
       </c>
       <c r="G1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AF1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AH1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL1" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="17" t="s">
+      <c r="AT1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AU1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW1" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="AZ1" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1001,14 +999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -1060,7 +1058,7 @@
     <col min="49" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1080,153 +1078,153 @@
         <v>5</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK1" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL1" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AP1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AR1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="AS1" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AT1" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AU1" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AV1" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:AV1"/>
+  <autoFilter ref="A1:AV1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="20" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="20" customWidth="1"/>
@@ -1256,84 +1254,84 @@
     <col min="27" max="16384" width="14.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1342,15 +1340,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="8" bestFit="1" customWidth="1"/>
@@ -1406,7 +1404,7 @@
     <col min="52" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="15" customFormat="1">
+    <row r="1" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1426,158 +1424,158 @@
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="15" t="s">
+      <c r="Y1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AR1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU1" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="AV1" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AX1" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AY1" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY1"/>
+  <autoFilter ref="A1:AY1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BB1"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -1636,9 +1634,9 @@
     <col min="56" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1656,148 +1654,148 @@
         <v>4</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="BB1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1807,19 +1805,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -1864,7 +1862,7 @@
     <col min="42" max="42" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1">
+    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1884,120 +1882,120 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP1"/>
+  <autoFilter ref="A1:AP1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <customSheetViews>
     <customSheetView guid="{CB75592A-5940-456F-98EA-7CA21283A3F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:AP140">
+      <autoFilter ref="A1:AP140" xr:uid="{C5011E3E-DFC0-48F0-A101-9848BD86F6B7}">
         <filterColumn colId="0">
           <filters>
             <filter val="116502452"/>
@@ -2038,14 +2036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -2084,15 +2082,15 @@
     <col min="36" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1">
+    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -2110,97 +2108,97 @@
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="AF1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="AJ1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AM1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2211,14 +2209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
@@ -2269,7 +2267,7 @@
     <col min="47" max="47" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="27" customFormat="1">
+    <row r="1" spans="1:47" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2289,127 +2287,127 @@
         <v>5</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="O1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="28" t="s">
+      <c r="Y1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN1" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="31" t="s">
+      <c r="AP1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="31" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="31" t="s">
+      <c r="AR1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="31" t="s">
-        <v>37</v>
-      </c>
       <c r="AS1" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AT1" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AU1" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
